--- a/biology/Biochimie/Formiate_déshydrogénase/Formiate_déshydrogénase.xlsx
+++ b/biology/Biochimie/Formiate_déshydrogénase/Formiate_déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formiate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Formiate_déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une formiate déshydrogénase est une oxydoréductase qui catalyse l'oxydation du formiate en dioxyde de carbone. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formiate_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Formiate_déshydrogénase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue deux types de formiate déshydrogénases[2] : celles qui ne contiennent pas de cofacteurs métalliques et transfèrent les électrons vers le NAD+ ou NADP+ (formiate déshydrogénase N, EC 1.17.1.9), et les métalloenzymes utilisant un site actif à molybdène ou à tungstène[3], qui contiennent un ou plusieurs clusters fer-soufre et donnent les électrons à un accepteur d'électron protéique, comme un cytochrome (EC 1.2.2.1). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue deux types de formiate déshydrogénases : celles qui ne contiennent pas de cofacteurs métalliques et transfèrent les électrons vers le NAD+ ou NADP+ (formiate déshydrogénase N, EC 1.17.1.9), et les métalloenzymes utilisant un site actif à molybdène ou à tungstène, qui contiennent un ou plusieurs clusters fer-soufre et donnent les électrons à un accepteur d'électron protéique, comme un cytochrome (EC 1.2.2.1). 
 HCOO− + NAD+  
         ⇌
     {\displaystyle \rightleftharpoons }
@@ -522,7 +536,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   CO2 + 2 ferrocytochrome b1 + 2 H+ (EC 1.2.2.1).
-Les formiate déshydrogénases à Mo/W appartiennent à la famille de la DMSO réductase[4]. Dans certaines d'entre elles, une sélénocystéine est un ligand de l'ion métallique, ce sont donc des sélénoprotéines[5].
+Les formiate déshydrogénases à Mo/W appartiennent à la famille de la DMSO réductase. Dans certaines d'entre elles, une sélénocystéine est un ligand de l'ion métallique, ce sont donc des sélénoprotéines.
 </t>
         </is>
       </c>
